--- a/output/fit_clients/fit_round_358.xlsx
+++ b/output/fit_clients/fit_round_358.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2231970383.551818</v>
+        <v>1599395876.901165</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08668893935005183</v>
+        <v>0.1071058917056672</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03484922678792333</v>
+        <v>0.03884183224989073</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1115985218.601842</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2154188336.708439</v>
+        <v>2460542737.255551</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1632327817552901</v>
+        <v>0.1649523681259074</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0347136343496886</v>
+        <v>0.04391188087799942</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1077094232.301631</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4972888669.725552</v>
+        <v>4533698272.403814</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1037496790923488</v>
+        <v>0.1641787307137126</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0334604391914344</v>
+        <v>0.02614252902913376</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>129</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2486444417.968117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3878597176.233254</v>
+        <v>2925687177.432758</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08838847923794328</v>
+        <v>0.109830467639221</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03946759403965792</v>
+        <v>0.03370129018261467</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>133</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1939298599.825067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2295545546.223052</v>
+        <v>2082099368.42024</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1085844742928682</v>
+        <v>0.1340603687577638</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05338850153244981</v>
+        <v>0.05003821854482154</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>68</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1147772770.730838</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2651868570.020971</v>
+        <v>2886911766.730591</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06479884674362087</v>
+        <v>0.09973747515794955</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0466471411820954</v>
+        <v>0.04900890143554747</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>112</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1325934283.433494</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3100892009.258654</v>
+        <v>2657673647.493128</v>
       </c>
       <c r="F8" t="n">
-        <v>0.205799325990054</v>
+        <v>0.1579619629312028</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02590159716585279</v>
+        <v>0.02166651141052028</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>114</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1550446072.467345</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1966483625.996035</v>
+        <v>2295346742.492784</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1504800964124041</v>
+        <v>0.1619497676370417</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0247966254065912</v>
+        <v>0.02616479017991648</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>983241844.2676829</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4474915645.146827</v>
+        <v>4284361961.370842</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1708476502767885</v>
+        <v>0.1882828007784672</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03343726761237015</v>
+        <v>0.04235912991539038</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>151</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2237457881.217945</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4216839293.608</v>
+        <v>3976874637.495436</v>
       </c>
       <c r="F11" t="n">
-        <v>0.140682947811288</v>
+        <v>0.1899322812353219</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0432268034000207</v>
+        <v>0.035388950634832</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>148</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2108419674.581098</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2214331078.635496</v>
+        <v>2115594331.011811</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1984708027515075</v>
+        <v>0.1338510534669127</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04557004829633986</v>
+        <v>0.04948466128085093</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>122</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1107165485.402194</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4719495482.616064</v>
+        <v>5026528482.537022</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07764290965941818</v>
+        <v>0.1008122742166975</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02459237996710614</v>
+        <v>0.03015231496419771</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>120</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2359747759.701661</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3167141051.754495</v>
+        <v>2944178546.956561</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1279869440177454</v>
+        <v>0.1365528061666292</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0406500140182162</v>
+        <v>0.03144565858468188</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>119</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1583570548.221795</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1180698659.991951</v>
+        <v>1381199129.665296</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1002494005851477</v>
+        <v>0.07448603814752927</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04050705419976104</v>
+        <v>0.03753976525755114</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>590349343.1070751</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2440053657.26413</v>
+        <v>1838909130.398711</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09806514912297742</v>
+        <v>0.1125645379898303</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03757957462250509</v>
+        <v>0.04506123944661213</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>72</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1220026864.809322</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3209541512.824788</v>
+        <v>4605700218.045532</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1526633103797194</v>
+        <v>0.1560431618130026</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04190963431525253</v>
+        <v>0.03919108323669435</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>105</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1604770830.113255</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2719901614.496202</v>
+        <v>3387184611.289185</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1296914468773093</v>
+        <v>0.1621883408140258</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03018888510221835</v>
+        <v>0.02503022299640935</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>117</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1359950857.759571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1244717704.322405</v>
+        <v>1111449353.359386</v>
       </c>
       <c r="F19" t="n">
-        <v>0.153187969052252</v>
+        <v>0.1906873904333812</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01862910620713974</v>
+        <v>0.02277775258747678</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>622358940.9626859</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2339806409.717063</v>
+        <v>2004779862.610514</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1281656857868427</v>
+        <v>0.1186290851645336</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03046395555388077</v>
+        <v>0.02667761280871462</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>46</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1169903195.01816</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2256927826.971689</v>
+        <v>2156865117.044232</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06882383112335513</v>
+        <v>0.07084166758018114</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03447374958269841</v>
+        <v>0.03649291833064205</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1128463924.883353</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3986966462.395157</v>
+        <v>3982232340.398057</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1011721178278591</v>
+        <v>0.1117355892292497</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04006178682291041</v>
+        <v>0.0544679350044213</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>99</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1993483233.639049</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1277203080.559565</v>
+        <v>1371826365.152672</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1638896684597363</v>
+        <v>0.1682580764306041</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04425569018212829</v>
+        <v>0.03996027330969656</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>638601563.7569331</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3539723282.79178</v>
+        <v>3719098832.163217</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1013220257491349</v>
+        <v>0.1342015363381674</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03441260873322721</v>
+        <v>0.02483087528598311</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>105</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1769861640.33711</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1293359275.234566</v>
+        <v>1112469246.074943</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07560706690488693</v>
+        <v>0.08539167239547538</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02209218853614639</v>
+        <v>0.02384458999394266</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>646679634.1377364</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>968688883.5252185</v>
+        <v>1252880518.904216</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08867229459587032</v>
+        <v>0.1148407839372261</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02717088094356751</v>
+        <v>0.02477667477568798</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>484344406.1769092</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3703377791.918651</v>
+        <v>3976149062.024495</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1546504629073907</v>
+        <v>0.1266910435609144</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02000667374650427</v>
+        <v>0.02019725792462635</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1851688920.840981</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2832086612.633388</v>
+        <v>3299382235.765725</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1187196568028113</v>
+        <v>0.1062010470283106</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04545517886467124</v>
+        <v>0.04546470782966736</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>115</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1416043302.976538</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5530311104.912187</v>
+        <v>5864068557.547009</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1041828303899462</v>
+        <v>0.1056350434865879</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04016626111176039</v>
+        <v>0.0465487267082575</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>158</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2765155463.249803</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2186852724.501303</v>
+        <v>2105096707.990351</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1088711727626828</v>
+        <v>0.08564397402827648</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02938334284612494</v>
+        <v>0.0349507077697845</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1093426421.033448</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1504642673.673806</v>
+        <v>1156744911.463186</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0697764751266842</v>
+        <v>0.07266979656547645</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03277350015819225</v>
+        <v>0.04651456481125604</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>752321216.6019015</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1756544149.288448</v>
+        <v>1737765929.857751</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07927649365518746</v>
+        <v>0.09568558549759996</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03579648699478904</v>
+        <v>0.03644454333139664</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>878272196.1454021</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3010066836.634236</v>
+        <v>2369864619.520015</v>
       </c>
       <c r="F33" t="n">
-        <v>0.161863670479117</v>
+        <v>0.1809225853384479</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04780131617161535</v>
+        <v>0.06118792309755112</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>107</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1505033413.098615</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1192338623.713195</v>
+        <v>984430371.0160311</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1123844835103316</v>
+        <v>0.07677213254907239</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02142455201495743</v>
+        <v>0.02523698883216717</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>596169318.1456801</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1260749552.163085</v>
+        <v>1349846794.186999</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1143189029436038</v>
+        <v>0.09245739348512227</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03904411567454853</v>
+        <v>0.03937893918666125</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>630374737.5108418</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2678224050.661611</v>
+        <v>2329407684.31501</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1554621981228441</v>
+        <v>0.1568576140037077</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01792712863721563</v>
+        <v>0.024127168892327</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>92</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1339112033.015834</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2694617629.187392</v>
+        <v>2768078347.303194</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08158219358980819</v>
+        <v>0.09264920413463132</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03973548176873443</v>
+        <v>0.03340961163015659</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>94</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1347308937.417814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2014639288.055423</v>
+        <v>2056287913.474697</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1067484624442529</v>
+        <v>0.1075706415261118</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03495043420102965</v>
+        <v>0.03041806678316517</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1007319620.601072</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1946763569.820526</v>
+        <v>1480574310.166579</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1392324043627282</v>
+        <v>0.1413529465250061</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02807760052298034</v>
+        <v>0.029499463350023</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>973381787.567436</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1607548329.782575</v>
+        <v>1596719569.237978</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1080276222211827</v>
+        <v>0.1147440098535712</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0455819305701946</v>
+        <v>0.04357765658690058</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>803774104.1850066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2321585951.029665</v>
+        <v>2054310638.17069</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1650480878183756</v>
+        <v>0.1187317010901672</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02934494181551666</v>
+        <v>0.032491121537064</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>92</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1160793018.232767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3107493263.901511</v>
+        <v>4229912265.011572</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1252630923862224</v>
+        <v>0.1273826598034185</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0304665146113294</v>
+        <v>0.03303181530670345</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1553746599.793408</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2409268382.993392</v>
+        <v>2492851735.966087</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1870863934541892</v>
+        <v>0.1619888408730332</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02310307214867076</v>
+        <v>0.01618127471800385</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>127</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1204634249.298885</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1515743011.523174</v>
+        <v>1928189980.534557</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07677970188820027</v>
+        <v>0.07541276066660914</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0268069250935313</v>
+        <v>0.02735086595647997</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>757871515.4823363</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1631586051.343994</v>
+        <v>1811204382.465623</v>
       </c>
       <c r="F45" t="n">
-        <v>0.121471685775843</v>
+        <v>0.1412579410822161</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05563751184312177</v>
+        <v>0.04001695058623683</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>815792979.4033651</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3511653123.104721</v>
+        <v>3784668578.011967</v>
       </c>
       <c r="F46" t="n">
-        <v>0.162138329319146</v>
+        <v>0.1326855891458505</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04079778695236412</v>
+        <v>0.0496091682568837</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>127</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1755826503.131887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3853161707.719889</v>
+        <v>3718776193.078173</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1522992217140776</v>
+        <v>0.2007770123838272</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04923094996945487</v>
+        <v>0.05207497872428588</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>96</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1926580844.722736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3464326880.007757</v>
+        <v>4003034267.200109</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08304938290137837</v>
+        <v>0.07783261636901172</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02796687391842684</v>
+        <v>0.03674203108640699</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>117</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1732163505.496052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1358002759.683402</v>
+        <v>1545062807.188406</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1670606189538709</v>
+        <v>0.1208512917120568</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03521776907897284</v>
+        <v>0.02936123809882283</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>679001433.9532082</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3847609243.993551</v>
+        <v>3176605326.285041</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1519854851577198</v>
+        <v>0.1713700419941395</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05241218762882608</v>
+        <v>0.04809109666518077</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>122</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1923804621.536965</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1511388722.992381</v>
+        <v>1246564943.833821</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1426162616107542</v>
+        <v>0.1381864865206813</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03762196193226923</v>
+        <v>0.04640977735336262</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>755694362.5844247</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4546680869.346899</v>
+        <v>3701811542.904236</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09863215066870079</v>
+        <v>0.1096897735632522</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06205309142929635</v>
+        <v>0.06002887996247144</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>148</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2273340458.988113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2651214828.150797</v>
+        <v>2854612026.664787</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1672238305518201</v>
+        <v>0.1562639344617598</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02838132157621479</v>
+        <v>0.03046179833965564</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>104</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1325607470.632914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3197912776.129844</v>
+        <v>3324475362.670426</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1572549215855401</v>
+        <v>0.1483204640781073</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04568182086313298</v>
+        <v>0.0362526004753745</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>116</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1598956389.166414</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4593939007.547961</v>
+        <v>3435441156.964058</v>
       </c>
       <c r="F55" t="n">
-        <v>0.191520596609405</v>
+        <v>0.1485301382141094</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0232402337437652</v>
+        <v>0.02260407365630629</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>92</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2296969504.890284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1529157620.154821</v>
+        <v>1851327662.737777</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1339715221293398</v>
+        <v>0.1288201153071048</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05213650967732451</v>
+        <v>0.03830746221598543</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>764578848.0421544</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2759777885.089025</v>
+        <v>4267514053.907613</v>
       </c>
       <c r="F57" t="n">
-        <v>0.162010661705216</v>
+        <v>0.1805263898879419</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01699700961632689</v>
+        <v>0.02644739327468488</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>114</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1379888926.787765</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1161512960.52642</v>
+        <v>1870614582.980883</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1459094422924053</v>
+        <v>0.1739497843272025</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03173775158083676</v>
+        <v>0.02715377861990835</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>580756542.2980804</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4018351476.62506</v>
+        <v>4919278860.756821</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1084588655892159</v>
+        <v>0.09546948194750515</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03820647349705415</v>
+        <v>0.03897978762667144</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2009175713.394056</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2287133084.986471</v>
+        <v>3403196021.637156</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1586400014467116</v>
+        <v>0.142061990878847</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02093353731163614</v>
+        <v>0.03299244877494008</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>112</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1143566538.078615</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3309108661.066169</v>
+        <v>3047132318.34962</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1222446731010451</v>
+        <v>0.1128100612061079</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0299380725408563</v>
+        <v>0.03090010255925033</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>123</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1654554281.861615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1332254336.477674</v>
+        <v>1875209578.971362</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1699331782081656</v>
+        <v>0.149298052988937</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04544947368909904</v>
+        <v>0.0395603454416765</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>666127126.1509168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3460072506.403122</v>
+        <v>5214666054.851573</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07562068092787165</v>
+        <v>0.1019071695552659</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03725761090061744</v>
+        <v>0.04147117800233236</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>103</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1730036339.687566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3932635956.401622</v>
+        <v>4677750807.458259</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1726802935321562</v>
+        <v>0.1871739606527263</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02201466191321601</v>
+        <v>0.0302297172474688</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>111</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1966318009.338117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4395907708.947812</v>
+        <v>4208290298.622653</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1403626212169486</v>
+        <v>0.1667622375095148</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02714590817785777</v>
+        <v>0.02614505669196593</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>128</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2197953849.441132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4894378425.272024</v>
+        <v>5467594663.525543</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1631296942358777</v>
+        <v>0.1294460823545675</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03817090363768789</v>
+        <v>0.04230436400883209</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>104</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2447189234.146798</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3232271591.076693</v>
+        <v>2789640448.79217</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06429640831200892</v>
+        <v>0.07323949040033387</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04855239381432985</v>
+        <v>0.03267363993639235</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>114</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1616135794.167089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5649506362.796539</v>
+        <v>4313665805.483123</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1529504381931067</v>
+        <v>0.1196026340229547</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04847583469683229</v>
+        <v>0.0432436325352985</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2824753277.151882</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1850416950.657231</v>
+        <v>2182594837.180737</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1477719267845297</v>
+        <v>0.1580653623898014</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05432721297373341</v>
+        <v>0.04124557424114599</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>925208460.9781281</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2801459670.791289</v>
+        <v>2368142931.434754</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0720985141876041</v>
+        <v>0.06586613207122187</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03229269951863803</v>
+        <v>0.03677849398244744</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>102</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1400729799.434122</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4066276151.245207</v>
+        <v>3603443090.84319</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1235989393718145</v>
+        <v>0.1377828230352131</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03095902741014664</v>
+        <v>0.02214628831113582</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>130</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2033138111.617079</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1609361511.92616</v>
+        <v>1800313972.321565</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1081254024497255</v>
+        <v>0.08178430410302366</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03531295176509999</v>
+        <v>0.04437239943563103</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>804680765.3158165</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3032081377.211422</v>
+        <v>3556792363.410025</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06966566736620741</v>
+        <v>0.1017040251056051</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04209012318503368</v>
+        <v>0.04400284645162891</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>136</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1516040681.664109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2640660806.09416</v>
+        <v>3217535150.811004</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1811134742019832</v>
+        <v>0.1346820569448813</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02783064864869755</v>
+        <v>0.03067169992394022</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>122</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1320330499.53641</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2192263655.077407</v>
+        <v>1647542955.49005</v>
       </c>
       <c r="F75" t="n">
-        <v>0.163036947045042</v>
+        <v>0.1435392432015027</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03738613745545765</v>
+        <v>0.02401983205823179</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1096131773.6764</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5205293427.413277</v>
+        <v>3417582636.209343</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1117357334322539</v>
+        <v>0.09511154342854275</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03342025271433713</v>
+        <v>0.02377114712361527</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>85</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2602646748.971751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2313784618.856578</v>
+        <v>2086985360.88654</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1192805823574954</v>
+        <v>0.1512742869777173</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0288223489386519</v>
+        <v>0.02208774478348404</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1156892417.298867</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3769194633.744981</v>
+        <v>3913885992.199125</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08350507040852161</v>
+        <v>0.08919188181877237</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03786368490953781</v>
+        <v>0.04778183434574639</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>125</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1884597299.128465</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1338457740.617974</v>
+        <v>1411014102.699529</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1128330636939471</v>
+        <v>0.1380180655587771</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02573216650464061</v>
+        <v>0.03794435960416969</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>669228876.2652204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5172243102.406955</v>
+        <v>5402457366.879801</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08173497753426434</v>
+        <v>0.09143529579337767</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03436887263357053</v>
+        <v>0.03633400633117675</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>77</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2586121608.973791</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3957187540.325069</v>
+        <v>3874361556.067249</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08280004444552812</v>
+        <v>0.09530766204212771</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0252916795416387</v>
+        <v>0.02508296820374238</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1978593731.799706</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5037852966.815022</v>
+        <v>4013879647.341556</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2143459086465502</v>
+        <v>0.1381007050517859</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02398650726968614</v>
+        <v>0.0266538789601199</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>126</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2518926465.233449</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1721585530.304549</v>
+        <v>1934618050.648815</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1540549251871696</v>
+        <v>0.1084098609121757</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03262714178765208</v>
+        <v>0.02813133425919509</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>860792715.7890495</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1896728903.992872</v>
+        <v>2536060820.627158</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07594699346555397</v>
+        <v>0.08109230589196385</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05162825779792408</v>
+        <v>0.05060640291813969</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>948364472.1241769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3110710814.202987</v>
+        <v>3205783000.851828</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1289055469096971</v>
+        <v>0.1847898816394364</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05372170307681935</v>
+        <v>0.04292885414658661</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>135</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1555355479.511151</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2757201640.073523</v>
+        <v>1925048359.505954</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1040434128790266</v>
+        <v>0.1620651027230074</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01774736510832579</v>
+        <v>0.02568871451495802</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>47</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1378600952.972957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1058018831.414467</v>
+        <v>910670354.2045178</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1202845719591514</v>
+        <v>0.1287329251398959</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03453503265200517</v>
+        <v>0.02823837914039426</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>529009434.9172376</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3308407409.234954</v>
+        <v>2494710889.919251</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1078799816696163</v>
+        <v>0.1680517085095231</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03514882740191397</v>
+        <v>0.03533761235272933</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>142</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1654203765.563859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3263838475.420581</v>
+        <v>2619139288.092692</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1390862498088334</v>
+        <v>0.1397793584798682</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04007734755815667</v>
+        <v>0.0312418278007063</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>120</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1631919256.482666</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1521960612.14036</v>
+        <v>1313734605.367124</v>
       </c>
       <c r="F90" t="n">
-        <v>0.121154253423709</v>
+        <v>0.1166214803863967</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05391024009223416</v>
+        <v>0.05054376416392219</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>760980288.8125303</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1479845178.358402</v>
+        <v>1822621254.721675</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1610909149421682</v>
+        <v>0.1399574771875058</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03754569359672775</v>
+        <v>0.04334853548405088</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>739922630.7755386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2262372851.963477</v>
+        <v>1856212602.719557</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08827306192410449</v>
+        <v>0.07745415920872777</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04234232603929473</v>
+        <v>0.04431354222616771</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>98</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1131186391.970434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3603694346.822927</v>
+        <v>4304771236.363121</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1298818882338101</v>
+        <v>0.09008396123775383</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04014413885049842</v>
+        <v>0.04288501551905882</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>110</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1801847199.681216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2319424504.746325</v>
+        <v>1924400646.384006</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1438864246017041</v>
+        <v>0.1067029998480216</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03342084301155687</v>
+        <v>0.03398776257612388</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1159712292.296996</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2838982512.200407</v>
+        <v>2011591179.667951</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1007943336862245</v>
+        <v>0.1064736087299138</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04109808339928672</v>
+        <v>0.04229331296796386</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1419491267.58426</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2077190677.129776</v>
+        <v>2172119499.206943</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1381968995420004</v>
+        <v>0.1112423509259176</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03745362905265492</v>
+        <v>0.04515833650807841</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1038595317.308336</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5104869261.242691</v>
+        <v>3981867146.278491</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1430265249793969</v>
+        <v>0.1446400065964352</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02877175608378807</v>
+        <v>0.02097632421789397</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>115</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2552434775.866627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2652873462.357724</v>
+        <v>2562743327.886902</v>
       </c>
       <c r="F98" t="n">
-        <v>0.118552587506492</v>
+        <v>0.1213055799225997</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03212026795978883</v>
+        <v>0.02032249431763365</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1326436692.374555</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2793953023.2243</v>
+        <v>2077834669.569111</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1005589842039266</v>
+        <v>0.0916249533010051</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02228471582938877</v>
+        <v>0.02964089274852756</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>112</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1396976482.690634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3362971470.082211</v>
+        <v>3723507738.079257</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1322513146153475</v>
+        <v>0.1681540388124874</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02030965193200118</v>
+        <v>0.02416025078928862</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>110</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1681485754.868644</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2635602538.541517</v>
+        <v>2749627088.574547</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2080265106763182</v>
+        <v>0.15355556919297</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04341740666568718</v>
+        <v>0.03978130630565667</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>146</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1317801310.185669</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_358.xlsx
+++ b/output/fit_clients/fit_round_358.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1599395876.901165</v>
+        <v>2087767235.911684</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1071058917056672</v>
+        <v>0.07931029673034101</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03884183224989073</v>
+        <v>0.04460725507188363</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2460542737.255551</v>
+        <v>1835109578.998324</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1649523681259074</v>
+        <v>0.1779741742235597</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04391188087799942</v>
+        <v>0.04044700384771532</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4533698272.403814</v>
+        <v>3761246084.893375</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1641787307137126</v>
+        <v>0.1589507444395758</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02614252902913376</v>
+        <v>0.02480709627839525</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2925687177.432758</v>
+        <v>3873409533.781659</v>
       </c>
       <c r="F5" t="n">
-        <v>0.109830467639221</v>
+        <v>0.07700449360908745</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03370129018261467</v>
+        <v>0.03959703273644729</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2082099368.42024</v>
+        <v>2340475507.15631</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1340603687577638</v>
+        <v>0.1030613900455679</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05003821854482154</v>
+        <v>0.04832482143426551</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2886911766.730591</v>
+        <v>2013652854.267004</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09973747515794955</v>
+        <v>0.07810427626109914</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04900890143554747</v>
+        <v>0.03976564994465582</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2657673647.493128</v>
+        <v>3558468679.620883</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1579619629312028</v>
+        <v>0.1603954214631023</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02166651141052028</v>
+        <v>0.02318448679464334</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2295346742.492784</v>
+        <v>1667517204.013552</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1619497676370417</v>
+        <v>0.1927714094004312</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02616479017991648</v>
+        <v>0.03666479079148741</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4284361961.370842</v>
+        <v>5469850393.425694</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1882828007784672</v>
+        <v>0.152343615045527</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04235912991539038</v>
+        <v>0.03511170159316187</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3976874637.495436</v>
+        <v>3920723062.17016</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1899322812353219</v>
+        <v>0.1447679235163293</v>
       </c>
       <c r="G11" t="n">
-        <v>0.035388950634832</v>
+        <v>0.0444161959569063</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2115594331.011811</v>
+        <v>3275212586.68608</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1338510534669127</v>
+        <v>0.1483464630974969</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04948466128085093</v>
+        <v>0.04658950484834118</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5026528482.537022</v>
+        <v>4262989294.198372</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1008122742166975</v>
+        <v>0.06765648392316503</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03015231496419771</v>
+        <v>0.02605183108661665</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2944178546.956561</v>
+        <v>2667228625.308008</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1365528061666292</v>
+        <v>0.1327277156791872</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03144565858468188</v>
+        <v>0.03521353939012974</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1381199129.665296</v>
+        <v>1291724847.391187</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07448603814752927</v>
+        <v>0.08995029810725153</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03753976525755114</v>
+        <v>0.04757796494864381</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1838909130.398711</v>
+        <v>1859980234.919234</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1125645379898303</v>
+        <v>0.1150435337699954</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04506123944661213</v>
+        <v>0.0395477938652314</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4605700218.045532</v>
+        <v>4500530232.292423</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1560431618130026</v>
+        <v>0.1725335196103463</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03919108323669435</v>
+        <v>0.03596621507372027</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3387184611.289185</v>
+        <v>3188474740.60778</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1621883408140258</v>
+        <v>0.1810082963122226</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02503022299640935</v>
+        <v>0.02655108038291071</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1111449353.359386</v>
+        <v>1225579901.790983</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1906873904333812</v>
+        <v>0.1341860627894329</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02277775258747678</v>
+        <v>0.0254146140942477</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2004779862.610514</v>
+        <v>2673613842.467794</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1186290851645336</v>
+        <v>0.1288739792244445</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02667761280871462</v>
+        <v>0.02022084547408271</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2156865117.044232</v>
+        <v>1763915742.051577</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07084166758018114</v>
+        <v>0.09725053023648145</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03649291833064205</v>
+        <v>0.03168262471247262</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3982232340.398057</v>
+        <v>3084676120.353614</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1117355892292497</v>
+        <v>0.1276852026657807</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0544679350044213</v>
+        <v>0.05586138243967526</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1371826365.152672</v>
+        <v>1531487870.875093</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1682580764306041</v>
+        <v>0.1137516697999203</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03996027330969656</v>
+        <v>0.03909814037253206</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3719098832.163217</v>
+        <v>3794172261.428559</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1342015363381674</v>
+        <v>0.09597919992825976</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02483087528598311</v>
+        <v>0.03139642154938665</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1112469246.074943</v>
+        <v>1447305215.483245</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08539167239547538</v>
+        <v>0.0771558034010101</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02384458999394266</v>
+        <v>0.02292177913121887</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1252880518.904216</v>
+        <v>1346705496.798668</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1148407839372261</v>
+        <v>0.109740523663003</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02477667477568798</v>
+        <v>0.03333558466999276</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3976149062.024495</v>
+        <v>3199164206.411836</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1266910435609144</v>
+        <v>0.1161600179690542</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02019725792462635</v>
+        <v>0.02415217020817984</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3299382235.765725</v>
+        <v>3720151945.647694</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1062010470283106</v>
+        <v>0.1315007778963205</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04546470782966736</v>
+        <v>0.03410380424449529</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5864068557.547009</v>
+        <v>4186108282.401186</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1056350434865879</v>
+        <v>0.1398813645036039</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0465487267082575</v>
+        <v>0.04164438232679609</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2105096707.990351</v>
+        <v>2175884923.699083</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08564397402827648</v>
+        <v>0.1324114202959491</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0349507077697845</v>
+        <v>0.02749009367472999</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1156744911.463186</v>
+        <v>908252286.608018</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07266979656547645</v>
+        <v>0.0712291121397937</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04651456481125604</v>
+        <v>0.04237812075249033</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1737765929.857751</v>
+        <v>1408072570.772984</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09568558549759996</v>
+        <v>0.09235860359306784</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03644454333139664</v>
+        <v>0.02662885951701886</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2369864619.520015</v>
+        <v>2559088163.595209</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1809225853384479</v>
+        <v>0.1968079589745788</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06118792309755112</v>
+        <v>0.05867667209212156</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>984430371.0160311</v>
+        <v>1243853626.388849</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07677213254907239</v>
+        <v>0.09567618203045195</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02523698883216717</v>
+        <v>0.02683886444462606</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1349846794.186999</v>
+        <v>989056627.8229747</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09245739348512227</v>
+        <v>0.09377567551080525</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03937893918666125</v>
+        <v>0.04181431361363193</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2329407684.31501</v>
+        <v>2465258081.611084</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1568576140037077</v>
+        <v>0.1209993502164656</v>
       </c>
       <c r="G36" t="n">
-        <v>0.024127168892327</v>
+        <v>0.02337281073385176</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2768078347.303194</v>
+        <v>2006775870.666034</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09264920413463132</v>
+        <v>0.08188876796860801</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03340961163015659</v>
+        <v>0.03285801488572308</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2056287913.474697</v>
+        <v>1705234768.618286</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1075706415261118</v>
+        <v>0.07542473920861283</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03041806678316517</v>
+        <v>0.03926432079879515</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1480574310.166579</v>
+        <v>1621734522.122858</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1413529465250061</v>
+        <v>0.1393147872472492</v>
       </c>
       <c r="G39" t="n">
-        <v>0.029499463350023</v>
+        <v>0.02875186222758662</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1596719569.237978</v>
+        <v>1651710484.285355</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1147440098535712</v>
+        <v>0.144467439410931</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04357765658690058</v>
+        <v>0.04348946958006042</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2054310638.17069</v>
+        <v>2176904889.435669</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1187317010901672</v>
+        <v>0.1453870549207682</v>
       </c>
       <c r="G41" t="n">
-        <v>0.032491121537064</v>
+        <v>0.04437481524525824</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4229912265.011572</v>
+        <v>3912325139.226237</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1273826598034185</v>
+        <v>0.08901199155762307</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03303181530670345</v>
+        <v>0.03446356117822626</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2492851735.966087</v>
+        <v>2733585396.002311</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1619888408730332</v>
+        <v>0.1484209822593283</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01618127471800385</v>
+        <v>0.01771691888206891</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1928189980.534557</v>
+        <v>1638201653.535392</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07541276066660914</v>
+        <v>0.06612930145308063</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02735086595647997</v>
+        <v>0.02837625023585013</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1811204382.465623</v>
+        <v>1640784889.355696</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1412579410822161</v>
+        <v>0.1780034620869883</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04001695058623683</v>
+        <v>0.03579735032461583</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3784668578.011967</v>
+        <v>4810983682.88657</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1326855891458505</v>
+        <v>0.1532197485352338</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0496091682568837</v>
+        <v>0.04406925845901972</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3718776193.078173</v>
+        <v>4056433567.671211</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2007770123838272</v>
+        <v>0.1358719877013394</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05207497872428588</v>
+        <v>0.05823127586654953</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4003034267.200109</v>
+        <v>4678989323.434303</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07783261636901172</v>
+        <v>0.07891139222534625</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03674203108640699</v>
+        <v>0.03650454828262063</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1545062807.188406</v>
+        <v>1601652343.106773</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1208512917120568</v>
+        <v>0.1939136657740093</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02936123809882283</v>
+        <v>0.02892025994496186</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3176605326.285041</v>
+        <v>3035675678.192479</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1713700419941395</v>
+        <v>0.1444881528796401</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04809109666518077</v>
+        <v>0.0488905416246263</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1246564943.833821</v>
+        <v>1268133371.24694</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1381864865206813</v>
+        <v>0.1949815749194891</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04640977735336262</v>
+        <v>0.04097141991221814</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3701811542.904236</v>
+        <v>3896390891.74577</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1096897735632522</v>
+        <v>0.09380421860939793</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06002887996247144</v>
+        <v>0.04852136199993602</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2854612026.664787</v>
+        <v>3481539195.916017</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1562639344617598</v>
+        <v>0.1262572081189169</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03046179833965564</v>
+        <v>0.03440105358504453</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3324475362.670426</v>
+        <v>4809618459.549467</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1483204640781073</v>
+        <v>0.1259376533135685</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0362526004753745</v>
+        <v>0.04657058020826632</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3435441156.964058</v>
+        <v>4713499016.391903</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1485301382141094</v>
+        <v>0.1652580639197609</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02260407365630629</v>
+        <v>0.02974216234101688</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1851327662.737777</v>
+        <v>1224802855.023916</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1288201153071048</v>
+        <v>0.1588180454133049</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03830746221598543</v>
+        <v>0.05802363830297422</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4267514053.907613</v>
+        <v>4192101532.282037</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1805263898879419</v>
+        <v>0.145082740531572</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02644739327468488</v>
+        <v>0.02129315499196564</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1870614582.980883</v>
+        <v>1488905760.434731</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1739497843272025</v>
+        <v>0.1260726572107277</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02715377861990835</v>
+        <v>0.02861469735121407</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4919278860.756821</v>
+        <v>3846393575.207023</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09546948194750515</v>
+        <v>0.09391689937306016</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03897978762667144</v>
+        <v>0.04361166782036201</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3403196021.637156</v>
+        <v>3038360780.764962</v>
       </c>
       <c r="F60" t="n">
-        <v>0.142061990878847</v>
+        <v>0.1283483355886856</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03299244877494008</v>
+        <v>0.03170554540474698</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3047132318.34962</v>
+        <v>2588676992.609325</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1128100612061079</v>
+        <v>0.1502058427039012</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03090010255925033</v>
+        <v>0.02343682335866115</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1875209578.971362</v>
+        <v>1825131873.708301</v>
       </c>
       <c r="F62" t="n">
-        <v>0.149298052988937</v>
+        <v>0.1594435991179366</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0395603454416765</v>
+        <v>0.04253916424296273</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5214666054.851573</v>
+        <v>5436908542.913739</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1019071695552659</v>
+        <v>0.1038934958845545</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04147117800233236</v>
+        <v>0.03800262125649123</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4677750807.458259</v>
+        <v>4454010128.523762</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1871739606527263</v>
+        <v>0.1848895986387549</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0302297172474688</v>
+        <v>0.02519918038393078</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4208290298.622653</v>
+        <v>5382612660.316961</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1667622375095148</v>
+        <v>0.1064002974826131</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02614505669196593</v>
+        <v>0.0204176223835216</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5467594663.525543</v>
+        <v>3587360117.732638</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1294460823545675</v>
+        <v>0.1359560197242047</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04230436400883209</v>
+        <v>0.03681242207612623</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2789640448.79217</v>
+        <v>2598233051.357266</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07323949040033387</v>
+        <v>0.09344559317146428</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03267363993639235</v>
+        <v>0.05130686685542154</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4313665805.483123</v>
+        <v>4786881435.310412</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1196026340229547</v>
+        <v>0.1114235252926561</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0432436325352985</v>
+        <v>0.05116546297886596</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2182594837.180737</v>
+        <v>2224859586.605403</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1580653623898014</v>
+        <v>0.1174773591762629</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04124557424114599</v>
+        <v>0.04642567977026582</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2368142931.434754</v>
+        <v>2601655199.06893</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06586613207122187</v>
+        <v>0.09747194734370619</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03677849398244744</v>
+        <v>0.0475286423883303</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3603443090.84319</v>
+        <v>5635103386.045219</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1377828230352131</v>
+        <v>0.1187030328203379</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02214628831113582</v>
+        <v>0.02219461011379846</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1800313972.321565</v>
+        <v>1721707440.591553</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08178430410302366</v>
+        <v>0.08201813752206275</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04437239943563103</v>
+        <v>0.03866799770670601</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3556792363.410025</v>
+        <v>2996991620.091589</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1017040251056051</v>
+        <v>0.1014552402876505</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04400284645162891</v>
+        <v>0.0326852594435104</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3217535150.811004</v>
+        <v>3246194582.55688</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1346820569448813</v>
+        <v>0.1640738281998607</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03067169992394022</v>
+        <v>0.02712618093594128</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1647542955.49005</v>
+        <v>1716955267.580918</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1435392432015027</v>
+        <v>0.1332444860605439</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02401983205823179</v>
+        <v>0.03058660772927387</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3417582636.209343</v>
+        <v>5214946313.187961</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09511154342854275</v>
+        <v>0.09767596410449426</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02377114712361527</v>
+        <v>0.02955989933175056</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2086985360.88654</v>
+        <v>2018775431.541515</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1512742869777173</v>
+        <v>0.1517960468127358</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02208774478348404</v>
+        <v>0.03074270905344413</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3913885992.199125</v>
+        <v>3497368639.409266</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08919188181877237</v>
+        <v>0.1118767728060592</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04778183434574639</v>
+        <v>0.04980622385124925</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1411014102.699529</v>
+        <v>1226320369.637245</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1380180655587771</v>
+        <v>0.1442778162365089</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03794435960416969</v>
+        <v>0.02763984854851836</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5402457366.879801</v>
+        <v>4119193761.963735</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09143529579337767</v>
+        <v>0.07691625500515849</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03633400633117675</v>
+        <v>0.03320688413989991</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3874361556.067249</v>
+        <v>3771550321.802496</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09530766204212771</v>
+        <v>0.097993082412835</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02508296820374238</v>
+        <v>0.02189298208939602</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4013879647.341556</v>
+        <v>4128109337.865299</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1381007050517859</v>
+        <v>0.1988819464966215</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0266538789601199</v>
+        <v>0.01873269754762292</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1934618050.648815</v>
+        <v>1822106429.477564</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1084098609121757</v>
+        <v>0.1303402916998592</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02813133425919509</v>
+        <v>0.03713857297861022</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2536060820.627158</v>
+        <v>1973127173.397027</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08109230589196385</v>
+        <v>0.1150048500439451</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05060640291813969</v>
+        <v>0.03544929649907386</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3205783000.851828</v>
+        <v>2296365026.686595</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1847898816394364</v>
+        <v>0.1784178737189744</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04292885414658661</v>
+        <v>0.04093284774863055</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1925048359.505954</v>
+        <v>2325927084.461922</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1620651027230074</v>
+        <v>0.153298492720809</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02568871451495802</v>
+        <v>0.01777123117813197</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>910670354.2045178</v>
+        <v>1188683739.896112</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1287329251398959</v>
+        <v>0.1180732930337869</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02823837914039426</v>
+        <v>0.03632034125508846</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2494710889.919251</v>
+        <v>3247499043.133239</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1680517085095231</v>
+        <v>0.130728756344498</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03533761235272933</v>
+        <v>0.02469522134520781</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2619139288.092692</v>
+        <v>3035617781.025761</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1397793584798682</v>
+        <v>0.159657110701756</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0312418278007063</v>
+        <v>0.03506632217867234</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1313734605.367124</v>
+        <v>1964910334.099068</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1166214803863967</v>
+        <v>0.1273978497350178</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05054376416392219</v>
+        <v>0.03981256928871467</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1822621254.721675</v>
+        <v>1694014745.739109</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1399574771875058</v>
+        <v>0.1280697620471109</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04334853548405088</v>
+        <v>0.04156749739138565</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1856212602.719557</v>
+        <v>2464631467.867716</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07745415920872777</v>
+        <v>0.07646306224137034</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04431354222616771</v>
+        <v>0.03429971600545796</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4304771236.363121</v>
+        <v>3414760300.948407</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09008396123775383</v>
+        <v>0.1362203902205449</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04288501551905882</v>
+        <v>0.0407973510870189</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1924400646.384006</v>
+        <v>2013951906.154851</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1067029998480216</v>
+        <v>0.1227709515799842</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03398776257612388</v>
+        <v>0.02938219140069019</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2011591179.667951</v>
+        <v>2174526941.209938</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1064736087299138</v>
+        <v>0.0919481188100439</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04229331296796386</v>
+        <v>0.03251506466181351</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2172119499.206943</v>
+        <v>1831783292.218788</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1112423509259176</v>
+        <v>0.1399569165229822</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04515833650807841</v>
+        <v>0.03879946822250693</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3981867146.278491</v>
+        <v>3836071152.051039</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1446400065964352</v>
+        <v>0.1765112730399657</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02097632421789397</v>
+        <v>0.02279062295490647</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2562743327.886902</v>
+        <v>3088710410.475959</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1213055799225997</v>
+        <v>0.09829494135133095</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02032249431763365</v>
+        <v>0.02616081219739344</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2077834669.569111</v>
+        <v>3371362049.91406</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0916249533010051</v>
+        <v>0.1000191836549305</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02964089274852756</v>
+        <v>0.02873615180911348</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3723507738.079257</v>
+        <v>3534175488.410736</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1681540388124874</v>
+        <v>0.11938751301946</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02416025078928862</v>
+        <v>0.02742654313765189</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2749627088.574547</v>
+        <v>3258053651.024613</v>
       </c>
       <c r="F101" t="n">
-        <v>0.15355556919297</v>
+        <v>0.1357017739536712</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03978130630565667</v>
+        <v>0.04244942378922104</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_358.xlsx
+++ b/output/fit_clients/fit_round_358.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2087767235.911684</v>
+        <v>2046136059.115851</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07931029673034101</v>
+        <v>0.106136160349571</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04460725507188363</v>
+        <v>0.04013555148358845</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1835109578.998324</v>
+        <v>1689486894.072164</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1779741742235597</v>
+        <v>0.1475950168032324</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04044700384771532</v>
+        <v>0.03066288566587225</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3761246084.893375</v>
+        <v>3343483741.903433</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1589507444395758</v>
+        <v>0.1520968230660868</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02480709627839525</v>
+        <v>0.02762825850237312</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>185</v>
+      </c>
+      <c r="J4" t="n">
+        <v>357</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44.51287302586369</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3873409533.781659</v>
+        <v>3303118247.793066</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07700449360908745</v>
+        <v>0.08438106520143651</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03959703273644729</v>
+        <v>0.04141804596358916</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>143</v>
+      </c>
+      <c r="J5" t="n">
+        <v>357</v>
+      </c>
+      <c r="K5" t="n">
+        <v>56.98972911098379</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2340475507.15631</v>
+        <v>1768856024.425352</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1030613900455679</v>
+        <v>0.1260493505902837</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04832482143426551</v>
+        <v>0.04957779579103802</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2013652854.267004</v>
+        <v>2179899390.97982</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07810427626109914</v>
+        <v>0.06922585945945338</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03976564994465582</v>
+        <v>0.03513575496539503</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3558468679.620883</v>
+        <v>2413248225.081829</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1603954214631023</v>
+        <v>0.1576316099461217</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02318448679464334</v>
+        <v>0.02746734514609892</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>94</v>
+      </c>
+      <c r="J8" t="n">
+        <v>354</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1667517204.013552</v>
+        <v>2135013417.227865</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1927714094004312</v>
+        <v>0.1368323789300152</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03666479079148741</v>
+        <v>0.02379940581874565</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5469850393.425694</v>
+        <v>4616072311.126482</v>
       </c>
       <c r="F10" t="n">
-        <v>0.152343615045527</v>
+        <v>0.1537057432878946</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03511170159316187</v>
+        <v>0.03382951517286169</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>300</v>
+      </c>
+      <c r="J10" t="n">
+        <v>358</v>
+      </c>
+      <c r="K10" t="n">
+        <v>63.06767192333965</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3920723062.17016</v>
+        <v>3960155208.316337</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1447679235163293</v>
+        <v>0.1502649902284335</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0444161959569063</v>
+        <v>0.03534380382368958</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>148</v>
+      </c>
+      <c r="J11" t="n">
+        <v>358</v>
+      </c>
+      <c r="K11" t="n">
+        <v>71.06338095825154</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3275212586.68608</v>
+        <v>2113467802.573675</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1483464630974969</v>
+        <v>0.1366539553896981</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04658950484834118</v>
+        <v>0.04304012917998789</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4262989294.198372</v>
+        <v>3893706598.608366</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06765648392316503</v>
+        <v>0.09215516024425688</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02605183108661665</v>
+        <v>0.02181294372855262</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>185</v>
+      </c>
+      <c r="J13" t="n">
+        <v>358</v>
+      </c>
+      <c r="K13" t="n">
+        <v>63.02254202545114</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2667228625.308008</v>
+        <v>3662677805.616448</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1327277156791872</v>
+        <v>0.1155563678982389</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03521353939012974</v>
+        <v>0.02731223884749674</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>74</v>
+      </c>
+      <c r="J14" t="n">
+        <v>355</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1291724847.391187</v>
+        <v>1145163160.530986</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08995029810725153</v>
+        <v>0.07781244173748787</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04757796494864381</v>
+        <v>0.04077296946034428</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1859980234.919234</v>
+        <v>2704859216.142016</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1150435337699954</v>
+        <v>0.08223825863524181</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0395477938652314</v>
+        <v>0.04788301575721269</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4500530232.292423</v>
+        <v>4633512625.041254</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1725335196103463</v>
+        <v>0.1475796559842581</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03596621507372027</v>
+        <v>0.04812333495470544</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>169</v>
+      </c>
+      <c r="J17" t="n">
+        <v>358</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3188474740.60778</v>
+        <v>2872610730.513339</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1810082963122226</v>
+        <v>0.1345035727896376</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02655108038291071</v>
+        <v>0.02473963611298369</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>88</v>
+      </c>
+      <c r="J18" t="n">
+        <v>356</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1225579901.790983</v>
+        <v>851454482.3762499</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1341860627894329</v>
+        <v>0.1340325545514926</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0254146140942477</v>
+        <v>0.0269936381402883</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2673613842.467794</v>
+        <v>2767488341.081499</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1288739792244445</v>
+        <v>0.1000948082201528</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02022084547408271</v>
+        <v>0.02433239848769886</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1763915742.051577</v>
+        <v>2584221921.481929</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09725053023648145</v>
+        <v>0.07865805890239891</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03168262471247262</v>
+        <v>0.03671752846617134</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3084676120.353614</v>
+        <v>3747962878.075845</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1276852026657807</v>
+        <v>0.09447394364829741</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05586138243967526</v>
+        <v>0.03591116055237938</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>97</v>
+      </c>
+      <c r="J22" t="n">
+        <v>358</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1531487870.875093</v>
+        <v>1543973262.031071</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1137516697999203</v>
+        <v>0.1330465705587717</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03909814037253206</v>
+        <v>0.04080129103926183</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3794172261.428559</v>
+        <v>4037705833.594579</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09597919992825976</v>
+        <v>0.1100730141052749</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03139642154938665</v>
+        <v>0.02810324157169134</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>108</v>
+      </c>
+      <c r="J24" t="n">
+        <v>358</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1447305215.483245</v>
+        <v>980570352.3828809</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0771558034010101</v>
+        <v>0.07540509600688183</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02292177913121887</v>
+        <v>0.0214757918770062</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1346705496.798668</v>
+        <v>947679066.7932329</v>
       </c>
       <c r="F26" t="n">
-        <v>0.109740523663003</v>
+        <v>0.09271955831548795</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03333558466999276</v>
+        <v>0.03054929458731341</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1386,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3199164206.411836</v>
+        <v>3245181022.193665</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1161600179690542</v>
+        <v>0.112318333956993</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02415217020817984</v>
+        <v>0.0248217936164672</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>150</v>
+      </c>
+      <c r="J27" t="n">
+        <v>357</v>
+      </c>
+      <c r="K27" t="n">
+        <v>43.14521568763544</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1423,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3720151945.647694</v>
+        <v>3858066571.249339</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1315007778963205</v>
+        <v>0.09305179571994067</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03410380424449529</v>
+        <v>0.0437963278673091</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>84</v>
+      </c>
+      <c r="J28" t="n">
+        <v>358</v>
+      </c>
+      <c r="K28" t="n">
+        <v>74.95269936199954</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4186108282.401186</v>
+        <v>3584377703.061086</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1398813645036039</v>
+        <v>0.1184119598374062</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04164438232679609</v>
+        <v>0.04224208012580308</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>317</v>
+      </c>
+      <c r="J29" t="n">
+        <v>357</v>
+      </c>
+      <c r="K29" t="n">
+        <v>52.01848866163892</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2175884923.699083</v>
+        <v>2123959700.919401</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1324114202959491</v>
+        <v>0.08812861830752734</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02749009367472999</v>
+        <v>0.03790923298992541</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>908252286.608018</v>
+        <v>1173003421.399775</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0712291121397937</v>
+        <v>0.08812206229404125</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04237812075249033</v>
+        <v>0.05187218700960253</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1408072570.772984</v>
+        <v>1442331892.90379</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09235860359306784</v>
+        <v>0.09661103638851821</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02662885951701886</v>
+        <v>0.03078713986044618</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1602,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2559088163.595209</v>
+        <v>3008362498.32988</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1968079589745788</v>
+        <v>0.1987822089416582</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05867667209212156</v>
+        <v>0.04263020398307309</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1243853626.388849</v>
+        <v>1500426582.09654</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09567618203045195</v>
+        <v>0.1108843236707097</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02683886444462606</v>
+        <v>0.01955658106686635</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>989056627.8229747</v>
+        <v>844215565.5934556</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09377567551080525</v>
+        <v>0.102525532927573</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04181431361363193</v>
+        <v>0.04004253934915014</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2465258081.611084</v>
+        <v>2913999821.999562</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1209993502164656</v>
+        <v>0.1812026063856955</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02337281073385176</v>
+        <v>0.02621607196945054</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2006775870.666034</v>
+        <v>2919967945.17291</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08188876796860801</v>
+        <v>0.1115354174286889</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03285801488572308</v>
+        <v>0.03376791387721245</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1705234768.618286</v>
+        <v>1368169006.259492</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07542473920861283</v>
+        <v>0.086079073913103</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03926432079879515</v>
+        <v>0.03515844741395111</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1812,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1621734522.122858</v>
+        <v>2221919375.885783</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1393147872472492</v>
+        <v>0.1557507730492367</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02875186222758662</v>
+        <v>0.03224088024948903</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1651710484.285355</v>
+        <v>1648098280.286407</v>
       </c>
       <c r="F40" t="n">
-        <v>0.144467439410931</v>
+        <v>0.136977041110678</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04348946958006042</v>
+        <v>0.05756502129171553</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2176904889.435669</v>
+        <v>2928026567.870951</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1453870549207682</v>
+        <v>0.1641274089887582</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04437481524525824</v>
+        <v>0.03956426637019868</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3912325139.226237</v>
+        <v>3786576595.168458</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08901199155762307</v>
+        <v>0.08462937812304341</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03446356117822626</v>
+        <v>0.02958617385783851</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>156</v>
+      </c>
+      <c r="J42" t="n">
+        <v>358</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2733585396.002311</v>
+        <v>2185907113.728346</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1484209822593283</v>
+        <v>0.1732870573757598</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01771691888206891</v>
+        <v>0.01649267493191782</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1638201653.535392</v>
+        <v>2323283127.252646</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06612930145308063</v>
+        <v>0.06304198892448565</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02837625023585013</v>
+        <v>0.03142848786886562</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1640784889.355696</v>
+        <v>1699005576.028594</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1780034620869883</v>
+        <v>0.149324683519576</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03579735032461583</v>
+        <v>0.0413176062133964</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4810983682.88657</v>
+        <v>3582479796.336749</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1532197485352338</v>
+        <v>0.1576368647591876</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04406925845901972</v>
+        <v>0.05337384150574529</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>215</v>
+      </c>
+      <c r="J46" t="n">
+        <v>357</v>
+      </c>
+      <c r="K46" t="n">
+        <v>53.80206403126668</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2088,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4056433567.671211</v>
+        <v>4953133033.531343</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1358719877013394</v>
+        <v>0.1844851202586728</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05823127586654953</v>
+        <v>0.05611917446866666</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>160</v>
+      </c>
+      <c r="J47" t="n">
+        <v>357</v>
+      </c>
+      <c r="K47" t="n">
+        <v>55.72361014890193</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2131,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4678989323.434303</v>
+        <v>4263863803.913492</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07891139222534625</v>
+        <v>0.08430770051481601</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03650454828262063</v>
+        <v>0.02615021738503077</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>182</v>
+      </c>
+      <c r="J48" t="n">
+        <v>358</v>
+      </c>
+      <c r="K48" t="n">
+        <v>64.76873108838326</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1601652343.106773</v>
+        <v>1403141605.085567</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1939136657740093</v>
+        <v>0.1279639026201316</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02892025994496186</v>
+        <v>0.041557118665503</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2203,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3035675678.192479</v>
+        <v>3817302994.266594</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1444881528796401</v>
+        <v>0.1137713231059245</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0488905416246263</v>
+        <v>0.03903766476204511</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>118</v>
+      </c>
+      <c r="J50" t="n">
+        <v>358</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1268133371.24694</v>
+        <v>1317794028.561906</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1949815749194891</v>
+        <v>0.1228969985219948</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04097141991221814</v>
+        <v>0.04937046295669728</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2273,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3896390891.74577</v>
+        <v>4620943034.415126</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09380421860939793</v>
+        <v>0.1199596171665075</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04852136199993602</v>
+        <v>0.06022523437920864</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>212</v>
+      </c>
+      <c r="J52" t="n">
+        <v>358</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2302,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3481539195.916017</v>
+        <v>2526115920.71732</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1262572081189169</v>
+        <v>0.1830437323017752</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03440105358504453</v>
+        <v>0.02733904964389295</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="n">
+        <v>32.78181487921457</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2339,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4809618459.549467</v>
+        <v>4669711542.976997</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1259376533135685</v>
+        <v>0.1218987511474517</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04657058020826632</v>
+        <v>0.04893417811554841</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>189</v>
+      </c>
+      <c r="J54" t="n">
+        <v>358</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2374,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4713499016.391903</v>
+        <v>3302926097.820846</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1652580639197609</v>
+        <v>0.2159374649920469</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02974216234101688</v>
+        <v>0.02448800453101884</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>172</v>
+      </c>
+      <c r="J55" t="n">
+        <v>357</v>
+      </c>
+      <c r="K55" t="n">
+        <v>46.15240594574392</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2417,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1224802855.023916</v>
+        <v>1215017369.215196</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1588180454133049</v>
+        <v>0.1320066130203102</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05802363830297422</v>
+        <v>0.04526127657120139</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2446,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4192101532.282037</v>
+        <v>3571003143.045786</v>
       </c>
       <c r="F57" t="n">
-        <v>0.145082740531572</v>
+        <v>0.1790305199782492</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02129315499196564</v>
+        <v>0.01931306537406362</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>148</v>
+      </c>
+      <c r="J57" t="n">
+        <v>356</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1488905760.434731</v>
+        <v>1503973267.217211</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1260726572107277</v>
+        <v>0.1334846813800507</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02861469735121407</v>
+        <v>0.03369650854574228</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2522,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3846393575.207023</v>
+        <v>5038635633.69437</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09391689937306016</v>
+        <v>0.1144008533417059</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04361166782036201</v>
+        <v>0.03585043042197522</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>173</v>
+      </c>
+      <c r="J59" t="n">
+        <v>358</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3038360780.764962</v>
+        <v>2356463856.885388</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1283483355886856</v>
+        <v>0.1957858163191068</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03170554540474698</v>
+        <v>0.03332724923648876</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>63</v>
+      </c>
+      <c r="J60" t="n">
+        <v>354</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2592,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2588676992.609325</v>
+        <v>3387561159.366969</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1502058427039012</v>
+        <v>0.1397263872967711</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02343682335866115</v>
+        <v>0.03187452695161602</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1825131873.708301</v>
+        <v>1814808644.537179</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1594435991179366</v>
+        <v>0.1338556699925084</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04253916424296273</v>
+        <v>0.03387127120679116</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2656,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5436908542.913739</v>
+        <v>4033192518.611444</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1038934958845545</v>
+        <v>0.06842472280587236</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03800262125649123</v>
+        <v>0.04118616637132804</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>176</v>
+      </c>
+      <c r="J63" t="n">
+        <v>357</v>
+      </c>
+      <c r="K63" t="n">
+        <v>60.67748323279331</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2693,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4454010128.523762</v>
+        <v>5113253862.719648</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1848895986387549</v>
+        <v>0.1700315109300758</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02519918038393078</v>
+        <v>0.02223964259873389</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>177</v>
+      </c>
+      <c r="J64" t="n">
+        <v>358</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5382612660.316961</v>
+        <v>3963782180.033553</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1064002974826131</v>
+        <v>0.1341976837131119</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0204176223835216</v>
+        <v>0.02227958388773643</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>274</v>
+      </c>
+      <c r="J65" t="n">
+        <v>357</v>
+      </c>
+      <c r="K65" t="n">
+        <v>60.2391008407938</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2771,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3587360117.732638</v>
+        <v>5500414052.018227</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1359560197242047</v>
+        <v>0.1481087538854835</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03681242207612623</v>
+        <v>0.04500007810919154</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>177</v>
+      </c>
+      <c r="J66" t="n">
+        <v>357</v>
+      </c>
+      <c r="K66" t="n">
+        <v>57.91211733190607</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2802,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2598233051.357266</v>
+        <v>2341277839.147786</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09344559317146428</v>
+        <v>0.07991766999737289</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05130686685542154</v>
+        <v>0.03175567407047081</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2837,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4786881435.310412</v>
+        <v>5573825421.139132</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1114235252926561</v>
+        <v>0.132368775848612</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05116546297886596</v>
+        <v>0.03935086439990432</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>194</v>
+      </c>
+      <c r="J68" t="n">
+        <v>358</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2878,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2224859586.605403</v>
+        <v>1564921887.859337</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1174773591762629</v>
+        <v>0.1397557375249331</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04642567977026582</v>
+        <v>0.04159482321551281</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2601655199.06893</v>
+        <v>2960305652.31241</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09747194734370619</v>
+        <v>0.07136695256391017</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0475286423883303</v>
+        <v>0.04766009960026045</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>51</v>
+      </c>
+      <c r="J70" t="n">
+        <v>350</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2948,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5635103386.045219</v>
+        <v>4086351334.956171</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1187030328203379</v>
+        <v>0.1609885245885957</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02219461011379846</v>
+        <v>0.02485375934505363</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>260</v>
+      </c>
+      <c r="J71" t="n">
+        <v>357</v>
+      </c>
+      <c r="K71" t="n">
+        <v>59.90325216910884</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2985,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1721707440.591553</v>
+        <v>1457138139.274764</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08201813752206275</v>
+        <v>0.07717804168548928</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03866799770670601</v>
+        <v>0.04032708884534345</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3020,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2996991620.091589</v>
+        <v>3076003817.441468</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1014552402876505</v>
+        <v>0.09178093423456421</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0326852594435104</v>
+        <v>0.03335541751368092</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3055,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3246194582.55688</v>
+        <v>3087246429.346869</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1640738281998607</v>
+        <v>0.132950399640565</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02712618093594128</v>
+        <v>0.02174065140094543</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>99</v>
+      </c>
+      <c r="J74" t="n">
+        <v>357</v>
+      </c>
+      <c r="K74" t="n">
+        <v>46.99953981221503</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3086,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1716955267.580918</v>
+        <v>2221833023.525801</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1332444860605439</v>
+        <v>0.111508401704747</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03058660772927387</v>
+        <v>0.03273511462838656</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3121,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5214946313.187961</v>
+        <v>3712077245.19494</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09767596410449426</v>
+        <v>0.1161288779646229</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02955989933175056</v>
+        <v>0.02936796224605758</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>169</v>
+      </c>
+      <c r="J76" t="n">
+        <v>358</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2018775431.541515</v>
+        <v>1555868098.486269</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1517960468127358</v>
+        <v>0.1201457351051441</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03074270905344413</v>
+        <v>0.02508297605902531</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3497368639.409266</v>
+        <v>4241222077.719458</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1118767728060592</v>
+        <v>0.135840326234065</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04980622385124925</v>
+        <v>0.05359564736649142</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>178</v>
+      </c>
+      <c r="J78" t="n">
+        <v>358</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1226320369.637245</v>
+        <v>1307707902.79614</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1442778162365089</v>
+        <v>0.1199272217891851</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02763984854851836</v>
+        <v>0.03671122068941136</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3261,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4119193761.963735</v>
+        <v>4057523410.75821</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07691625500515849</v>
+        <v>0.1052417490512736</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03320688413989991</v>
+        <v>0.03637768877600086</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>175</v>
+      </c>
+      <c r="J80" t="n">
+        <v>357</v>
+      </c>
+      <c r="K80" t="n">
+        <v>49.76427871598494</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3304,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3771550321.802496</v>
+        <v>5087425748.97159</v>
       </c>
       <c r="F81" t="n">
-        <v>0.097993082412835</v>
+        <v>0.1300874143055629</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02189298208939602</v>
+        <v>0.02168795597025012</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>165</v>
+      </c>
+      <c r="J81" t="n">
+        <v>358</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4128109337.865299</v>
+        <v>4145937771.447769</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1988819464966215</v>
+        <v>0.139915515053241</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01873269754762292</v>
+        <v>0.01798655174460545</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>252</v>
+      </c>
+      <c r="J82" t="n">
+        <v>358</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1822106429.477564</v>
+        <v>1845534249.829277</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1303402916998592</v>
+        <v>0.1475090080232808</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03713857297861022</v>
+        <v>0.03792308542773813</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1973127173.397027</v>
+        <v>2133644169.503044</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1150048500439451</v>
+        <v>0.09828983415628774</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03544929649907386</v>
+        <v>0.03597373554000929</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2296365026.686595</v>
+        <v>2416819924.28294</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1784178737189744</v>
+        <v>0.141577074318013</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04093284774863055</v>
+        <v>0.03778816425851624</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2325927084.461922</v>
+        <v>2457007907.162423</v>
       </c>
       <c r="F86" t="n">
-        <v>0.153298492720809</v>
+        <v>0.1225866676363227</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01777123117813197</v>
+        <v>0.02139891811323651</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1188683739.896112</v>
+        <v>1020633138.565509</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1180732930337869</v>
+        <v>0.1845364364118416</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03632034125508846</v>
+        <v>0.04194530537141818</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3247499043.133239</v>
+        <v>2892509073.781918</v>
       </c>
       <c r="F88" t="n">
-        <v>0.130728756344498</v>
+        <v>0.1573327754991728</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02469522134520781</v>
+        <v>0.02543111680582112</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3035617781.025761</v>
+        <v>2330765424.426889</v>
       </c>
       <c r="F89" t="n">
-        <v>0.159657110701756</v>
+        <v>0.1490165836287146</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03506632217867234</v>
+        <v>0.04053583625000941</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1964910334.099068</v>
+        <v>1393377536.331283</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1273978497350178</v>
+        <v>0.1260910515842749</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03981256928871467</v>
+        <v>0.05366546259773095</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1694014745.739109</v>
+        <v>2022548435.615464</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1280697620471109</v>
+        <v>0.1285178842033666</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04156749739138565</v>
+        <v>0.05574995364381929</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2464631467.867716</v>
+        <v>2817729391.100663</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07646306224137034</v>
+        <v>0.09516278388821417</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03429971600545796</v>
+        <v>0.04502545734130201</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3414760300.948407</v>
+        <v>5021891574.406186</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1362203902205449</v>
+        <v>0.09686244793251879</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0407973510870189</v>
+        <v>0.04177809015067656</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>166</v>
+      </c>
+      <c r="J93" t="n">
+        <v>358</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2013951906.154851</v>
+        <v>1645064888.375243</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1227709515799842</v>
+        <v>0.1260319765203835</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02938219140069019</v>
+        <v>0.03190658139658333</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2174526941.209938</v>
+        <v>2090543912.198969</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0919481188100439</v>
+        <v>0.1038008222261551</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03251506466181351</v>
+        <v>0.04329205900284926</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1831783292.218788</v>
+        <v>1562046013.848299</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1399569165229822</v>
+        <v>0.1038772919062142</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03879946822250693</v>
+        <v>0.04440442632753533</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3836071152.051039</v>
+        <v>4816694179.359979</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1765112730399657</v>
+        <v>0.1102614116581918</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02279062295490647</v>
+        <v>0.02434381206401722</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>185</v>
+      </c>
+      <c r="J97" t="n">
+        <v>357</v>
+      </c>
+      <c r="K97" t="n">
+        <v>61.14823869069222</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3088710410.475959</v>
+        <v>3273225014.385547</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09829494135133095</v>
+        <v>0.1045469598755421</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02616081219739344</v>
+        <v>0.03238151608331098</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>88</v>
+      </c>
+      <c r="J98" t="n">
+        <v>350</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3371362049.91406</v>
+        <v>3219372079.388291</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1000191836549305</v>
+        <v>0.1428841308327903</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02873615180911348</v>
+        <v>0.03302298588292551</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3534175488.410736</v>
+        <v>3504023757.767146</v>
       </c>
       <c r="F100" t="n">
-        <v>0.11938751301946</v>
+        <v>0.1539366622018725</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02742654313765189</v>
+        <v>0.01846881238247074</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>161</v>
+      </c>
+      <c r="J100" t="n">
+        <v>354</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3258053651.024613</v>
+        <v>3220622117.803308</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1357017739536712</v>
+        <v>0.137239097697198</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04244942378922104</v>
+        <v>0.0404364530092927</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
